--- a/database/relatorio/PE 90006-2024/CIRURGICA_LAJEADENSE_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90006-2024/CIRURGICA_LAJEADENSE_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 23 - ALGODÃO (448248)</t>
+          <t>Grupo N/A - Item 23 - ALGODÃO (448248)</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Item: 24 - FRASCO - TIPO ALMOTOLIA (280476)</t>
+          <t>Grupo N/A - Item 24 - FRASCO - TIPO ALMOTOLIA (280476)</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Item: 25 - FRASCO - TIPO ALMOTOLIA (279899)</t>
+          <t>Grupo N/A - Item 25 - FRASCO - TIPO ALMOTOLIA (279899)</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Item: 26 - APARELHO BARBEAR (283964)</t>
+          <t>Grupo N/A - Item 26 - APARELHO BARBEAR (283964)</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Item: 31 - ATADURA (444606)</t>
+          <t>Grupo N/A - Item 31 - ATADURA (444606)</t>
         </is>
       </c>
     </row>
@@ -679,7 +679,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Item: 70 - DETECTOR FETAL (454905)</t>
+          <t>Grupo N/A - Item 70 - DETECTOR FETAL (454905)</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Item: 114 - INDICADOR QUÍMICO (482248)</t>
+          <t>Grupo N/A - Item 114 - INDICADOR QUÍMICO (482248)</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Item: 137 - MONITOR PORTÁTIL (389557)</t>
+          <t>Grupo N/A - Item 137 - MONITOR PORTÁTIL (389557)</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Item: 142 - REAGENTE PARA DIAGNÓSTICO CLÍNICO 5 (339565)</t>
+          <t>Grupo N/A - Item 142 - REAGENTE PARA DIAGNÓSTICO CLÍNICO 5 (339565)</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Item: 154 - TERMÔMETRO CLÍNICO (435801)</t>
+          <t>Grupo N/A - Item 154 - TERMÔMETRO CLÍNICO (435801)</t>
         </is>
       </c>
     </row>
